--- a/Timer_Divisions.xlsx
+++ b/Timer_Divisions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugon\Documents\GitHub\Embedded-Systems_Synthesizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A245A00-1D45-4015-994F-F887AE24CA6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC1B551-FF69-4D90-B1A2-390A223D6AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AAE995A9-1352-4B8D-8396-36E29968FC67}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="292">
   <si>
     <t>PSC</t>
   </si>
@@ -186,12 +186,6 @@
     <t>25,</t>
   </si>
   <si>
-    <t>};</t>
-  </si>
-  <si>
-    <t>uint8_t PSC_LUT [] = {55, 52, 49, 43, 42, 38, 54, 54, 54, 48, 55, 56, 49, 54, 51, 48, 42, 47, 54, 51, 48, 51, 35, 52, 49, 54, 51, 29, 34, 43, 27, 23, 217, 51, 193, 91};</t>
-  </si>
-  <si>
     <t>277,19</t>
   </si>
   <si>
@@ -234,9 +228,6 @@
     <t>27,</t>
   </si>
   <si>
-    <t>uint8_t ARR_LUT [] = {25, 25, 25, 27, 26, 27, 18, 17, 16, 17, 14, 13, 14, 12, 12, 12, 13, 11, 9, 9, 9, 8, 11, 7, 7, 6, 6, 10, 8, 6, 9, 10, 1, 4, 1, 2};</t>
-  </si>
-  <si>
     <t>329,63</t>
   </si>
   <si>
@@ -565,6 +556,360 @@
   </si>
   <si>
     <t>1.978,02</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>65,41</t>
+  </si>
+  <si>
+    <t>65,22</t>
+  </si>
+  <si>
+    <t>0,295%</t>
+  </si>
+  <si>
+    <t>138,</t>
+  </si>
+  <si>
+    <t>40,</t>
+  </si>
+  <si>
+    <t>C#2</t>
+  </si>
+  <si>
+    <t>69,30</t>
+  </si>
+  <si>
+    <t>69,23</t>
+  </si>
+  <si>
+    <t>0,099%</t>
+  </si>
+  <si>
+    <t>130,</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>73,42</t>
+  </si>
+  <si>
+    <t>73,17</t>
+  </si>
+  <si>
+    <t>0,341%</t>
+  </si>
+  <si>
+    <t>123,</t>
+  </si>
+  <si>
+    <t>uint8_t PSC_LUT [] = {138, 130, 123, 116, 109, 103, 97, 92, 91, 86, 81, 83, 92, 87, 82, 77, 73, 69, 65, 61, 58, 63, 62, 61, 55, 52, 49, 43, 42, 38, 54, 54, 54, 48, 55, 56, 49, 54, 51, 48, 42, 47, 54, 51, 48, 51, 35, 52, 49, 54, 51, 29, 34, 43, 27, 23, 217, 51, 193, 91};</t>
+  </si>
+  <si>
+    <t>D#2</t>
+  </si>
+  <si>
+    <t>77,79</t>
+  </si>
+  <si>
+    <t>77,59</t>
+  </si>
+  <si>
+    <t>0,258%</t>
+  </si>
+  <si>
+    <t>116,</t>
+  </si>
+  <si>
+    <t>uint8_t ARR_LUT [] = {40, 40, 40, 40, 40, 40, 40, 40, 38, 38, 38, 35, 30, 30, 30, 30, 30, 30, 30, 30, 30, 26, 25, 24, 25, 25, 25, 27, 26, 27, 18, 17, 16, 17, 14, 13, 14, 12, 12, 12, 13, 11, 9, 9, 9, 8, 11, 7, 7, 6, 6, 10, 8, 6, 9, 10, 1, 4, 1, 2};</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>82,41</t>
+  </si>
+  <si>
+    <t>82,57</t>
+  </si>
+  <si>
+    <t>0,191%</t>
+  </si>
+  <si>
+    <t>109,</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>87,31</t>
+  </si>
+  <si>
+    <t>87,38</t>
+  </si>
+  <si>
+    <t>0,076%</t>
+  </si>
+  <si>
+    <t>103,</t>
+  </si>
+  <si>
+    <t>F#2</t>
+  </si>
+  <si>
+    <t>92,50</t>
+  </si>
+  <si>
+    <t>92,78</t>
+  </si>
+  <si>
+    <t>0,302%</t>
+  </si>
+  <si>
+    <t>97,</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>98,00</t>
+  </si>
+  <si>
+    <t>97,83</t>
+  </si>
+  <si>
+    <t>0,182%</t>
+  </si>
+  <si>
+    <t>92,</t>
+  </si>
+  <si>
+    <t>G#2</t>
+  </si>
+  <si>
+    <t>103,83</t>
+  </si>
+  <si>
+    <t>104,11</t>
+  </si>
+  <si>
+    <t>91,</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>110,01</t>
+  </si>
+  <si>
+    <t>110,16</t>
+  </si>
+  <si>
+    <t>0,139%</t>
+  </si>
+  <si>
+    <t>86,</t>
+  </si>
+  <si>
+    <t>A#2</t>
+  </si>
+  <si>
+    <t>116,55</t>
+  </si>
+  <si>
+    <t>116,96</t>
+  </si>
+  <si>
+    <t>0,352%</t>
+  </si>
+  <si>
+    <t>81,</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>123,48</t>
+  </si>
+  <si>
+    <t>123,92</t>
+  </si>
+  <si>
+    <t>0,360%</t>
+  </si>
+  <si>
+    <t>83,</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>130,82</t>
+  </si>
+  <si>
+    <t>130,43</t>
+  </si>
+  <si>
+    <t>30,</t>
+  </si>
+  <si>
+    <t>C#3</t>
+  </si>
+  <si>
+    <t>138,60</t>
+  </si>
+  <si>
+    <t>137,93</t>
+  </si>
+  <si>
+    <t>0,484%</t>
+  </si>
+  <si>
+    <t>87,</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>146,84</t>
+  </si>
+  <si>
+    <t>146,34</t>
+  </si>
+  <si>
+    <t>82,</t>
+  </si>
+  <si>
+    <t>D#3</t>
+  </si>
+  <si>
+    <t>155,57</t>
+  </si>
+  <si>
+    <t>155,84</t>
+  </si>
+  <si>
+    <t>0,175%</t>
+  </si>
+  <si>
+    <t>77,</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>164,82</t>
+  </si>
+  <si>
+    <t>164,38</t>
+  </si>
+  <si>
+    <t>0,267%</t>
+  </si>
+  <si>
+    <t>73,</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>174,62</t>
+  </si>
+  <si>
+    <t>173,91</t>
+  </si>
+  <si>
+    <t>0,409%</t>
+  </si>
+  <si>
+    <t>69,</t>
+  </si>
+  <si>
+    <t>F#3</t>
+  </si>
+  <si>
+    <t>185,01</t>
+  </si>
+  <si>
+    <t>184,62</t>
+  </si>
+  <si>
+    <t>65,</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>196,01</t>
+  </si>
+  <si>
+    <t>196,72</t>
+  </si>
+  <si>
+    <t>0,362%</t>
+  </si>
+  <si>
+    <t>61,</t>
+  </si>
+  <si>
+    <t>G#3</t>
+  </si>
+  <si>
+    <t>207,66</t>
+  </si>
+  <si>
+    <t>206,90</t>
+  </si>
+  <si>
+    <t>0,371%</t>
+  </si>
+  <si>
+    <t>58,</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>220,01</t>
+  </si>
+  <si>
+    <t>219,78</t>
+  </si>
+  <si>
+    <t>0,106%</t>
+  </si>
+  <si>
+    <t>63,</t>
+  </si>
+  <si>
+    <t>A#3</t>
+  </si>
+  <si>
+    <t>233,09</t>
+  </si>
+  <si>
+    <t>232,26</t>
+  </si>
+  <si>
+    <t>62,</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>246,96</t>
+  </si>
+  <si>
+    <t>245,90</t>
+  </si>
+  <si>
+    <t>0,428%</t>
+  </si>
+  <si>
+    <t>24,</t>
   </si>
 </sst>
 </file>
@@ -693,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -719,6 +1064,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,55 +1082,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>23251</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>53882</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3255A2FD-0477-4BBE-B4B4-5BBC38B00FC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7650480" y="1394460"/>
-          <a:ext cx="4511431" cy="6256562"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1082,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C5B1C0-3458-47C2-B71C-2D1E720FB9AA}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,7 +1434,7 @@
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>5</v>
+        <v>174</v>
       </c>
       <c r="B2" s="7">
         <v>36000000</v>
@@ -1144,39 +1443,37 @@
         <v>100</v>
       </c>
       <c r="D2" s="7">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="E2" s="7">
-        <v>25</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="L2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="B3" s="7">
         <v>36000000</v>
@@ -1185,25 +1482,25 @@
         <v>100</v>
       </c>
       <c r="D3" s="7">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="E3" s="7">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1213,7 +1510,7 @@
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="B4" s="7">
         <v>36000000</v>
@@ -1222,29 +1519,29 @@
         <v>100</v>
       </c>
       <c r="D4" s="7">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="E4" s="7">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="5" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -1252,7 +1549,7 @@
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="B5" s="7">
         <v>36000000</v>
@@ -1261,39 +1558,37 @@
         <v>100</v>
       </c>
       <c r="D5" s="7">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="E5" s="7">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="L5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="M5" s="5"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="B6" s="7">
         <v>36000000</v>
@@ -1302,25 +1597,25 @@
         <v>100</v>
       </c>
       <c r="D6" s="7">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="E6" s="7">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -1330,7 +1625,7 @@
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="B7" s="7">
         <v>36000000</v>
@@ -1339,25 +1634,25 @@
         <v>100</v>
       </c>
       <c r="D7" s="7">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E7" s="7">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -1367,7 +1662,7 @@
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="B8" s="7">
         <v>36000000</v>
@@ -1376,25 +1671,25 @@
         <v>100</v>
       </c>
       <c r="D8" s="7">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="E8" s="7">
-        <v>18</v>
-      </c>
-      <c r="F8" s="7">
-        <v>370</v>
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1404,7 +1699,7 @@
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="B9" s="7">
         <v>36000000</v>
@@ -1413,25 +1708,25 @@
         <v>100</v>
       </c>
       <c r="D9" s="7">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="E9" s="7">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7">
-        <v>392</v>
+        <v>40</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -1441,7 +1736,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="B10" s="7">
         <v>36000000</v>
@@ -1450,25 +1745,25 @@
         <v>100</v>
       </c>
       <c r="D10" s="7">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="E10" s="7">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1478,7 +1773,7 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>221</v>
       </c>
       <c r="B11" s="7">
         <v>36000000</v>
@@ -1487,25 +1782,25 @@
         <v>100</v>
       </c>
       <c r="D11" s="7">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="E11" s="7">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1515,7 +1810,7 @@
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="B12" s="7">
         <v>36000000</v>
@@ -1524,25 +1819,25 @@
         <v>100</v>
       </c>
       <c r="D12" s="7">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E12" s="7">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1552,7 +1847,7 @@
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c r="B13" s="7">
         <v>36000000</v>
@@ -1561,25 +1856,25 @@
         <v>100</v>
       </c>
       <c r="D13" s="7">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E13" s="7">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1589,7 +1884,7 @@
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
       <c r="B14" s="7">
         <v>36000000</v>
@@ -1598,25 +1893,25 @@
         <v>100</v>
       </c>
       <c r="D14" s="7">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E14" s="7">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1626,7 +1921,7 @@
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="B15" s="7">
         <v>36000000</v>
@@ -1635,25 +1930,25 @@
         <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E15" s="7">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>106</v>
+        <v>239</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1663,7 +1958,7 @@
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="B16" s="7">
         <v>36000000</v>
@@ -1672,25 +1967,25 @@
         <v>100</v>
       </c>
       <c r="D16" s="7">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E16" s="7">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>247</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>106</v>
+        <v>239</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1700,7 +1995,7 @@
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="B17" s="7">
         <v>36000000</v>
@@ -1709,25 +2004,25 @@
         <v>100</v>
       </c>
       <c r="D17" s="7">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="E17" s="7">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>90</v>
+        <v>253</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>106</v>
+        <v>239</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1737,7 +2032,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>19</v>
+        <v>254</v>
       </c>
       <c r="B18" s="7">
         <v>36000000</v>
@@ -1746,25 +2041,25 @@
         <v>100</v>
       </c>
       <c r="D18" s="7">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E18" s="7">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>255</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -1774,7 +2069,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c r="B19" s="7">
         <v>36000000</v>
@@ -1783,25 +2078,25 @@
         <v>100</v>
       </c>
       <c r="D19" s="7">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E19" s="7">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>121</v>
+        <v>239</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1811,7 +2106,7 @@
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="B20" s="7">
         <v>36000000</v>
@@ -1820,25 +2115,25 @@
         <v>100</v>
       </c>
       <c r="D20" s="7">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E20" s="7">
-        <v>9</v>
-      </c>
-      <c r="F20" s="7">
-        <v>740</v>
+        <v>30</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>123</v>
+        <v>239</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -1848,7 +2143,7 @@
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="B21" s="7">
         <v>36000000</v>
@@ -1857,25 +2152,25 @@
         <v>100</v>
       </c>
       <c r="D21" s="7">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E21" s="7">
-        <v>9</v>
-      </c>
-      <c r="F21" s="7">
-        <v>784</v>
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>124</v>
+        <v>270</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>110</v>
+        <v>272</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>123</v>
+        <v>239</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1885,7 +2180,7 @@
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>23</v>
+        <v>273</v>
       </c>
       <c r="B22" s="7">
         <v>36000000</v>
@@ -1894,25 +2189,25 @@
         <v>100</v>
       </c>
       <c r="D22" s="7">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E22" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>85</v>
+        <v>276</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>90</v>
+        <v>277</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>123</v>
+        <v>239</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -1922,7 +2217,7 @@
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>24</v>
+        <v>278</v>
       </c>
       <c r="B23" s="7">
         <v>36000000</v>
@@ -1931,25 +2226,25 @@
         <v>100</v>
       </c>
       <c r="D23" s="7">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E23" s="7">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>127</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>129</v>
+        <v>281</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>110</v>
+        <v>282</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -1959,34 +2254,34 @@
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C24" s="7">
+        <v>100</v>
+      </c>
+      <c r="D24" s="7">
+        <v>62</v>
+      </c>
+      <c r="E24" s="7">
         <v>25</v>
       </c>
-      <c r="B24" s="7">
-        <v>36000000</v>
-      </c>
-      <c r="C24" s="7">
-        <v>100</v>
-      </c>
-      <c r="D24" s="7">
-        <v>35</v>
-      </c>
-      <c r="E24" s="7">
-        <v>11</v>
-      </c>
       <c r="F24" s="7" t="s">
-        <v>131</v>
+        <v>284</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>132</v>
+        <v>285</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>133</v>
+        <v>286</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -1996,7 +2291,7 @@
     </row>
     <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="B25" s="7">
         <v>36000000</v>
@@ -2005,25 +2300,25 @@
         <v>100</v>
       </c>
       <c r="D25" s="7">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E25" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>97</v>
+        <v>290</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>55</v>
+        <v>272</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -2033,7 +2328,7 @@
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B26" s="7">
         <v>36000000</v>
@@ -2042,25 +2337,25 @@
         <v>100</v>
       </c>
       <c r="D26" s="7">
+        <v>55</v>
+      </c>
+      <c r="E26" s="7">
+        <v>25</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="E26" s="7">
-        <v>7</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -2070,7 +2365,7 @@
     </row>
     <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B27" s="7">
         <v>36000000</v>
@@ -2079,25 +2374,25 @@
         <v>100</v>
       </c>
       <c r="D27" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E27" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -2107,7 +2402,7 @@
     </row>
     <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B28" s="7">
         <v>36000000</v>
@@ -2116,25 +2411,25 @@
         <v>100</v>
       </c>
       <c r="D28" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -2144,7 +2439,7 @@
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B29" s="7">
         <v>36000000</v>
@@ -2153,25 +2448,25 @@
         <v>100</v>
       </c>
       <c r="D29" s="7">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E29" s="7">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -2181,7 +2476,7 @@
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B30" s="7">
         <v>36000000</v>
@@ -2190,25 +2485,25 @@
         <v>100</v>
       </c>
       <c r="D30" s="7">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E30" s="7">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -2218,7 +2513,7 @@
     </row>
     <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B31" s="7">
         <v>36000000</v>
@@ -2227,25 +2522,25 @@
         <v>100</v>
       </c>
       <c r="D31" s="7">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E31" s="7">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -2255,7 +2550,7 @@
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B32" s="7">
         <v>36000000</v>
@@ -2264,25 +2559,25 @@
         <v>100</v>
       </c>
       <c r="D32" s="7">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E32" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F32" s="7">
-        <v>1480</v>
+        <v>370</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -2292,7 +2587,7 @@
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B33" s="7">
         <v>36000000</v>
@@ -2301,25 +2596,25 @@
         <v>100</v>
       </c>
       <c r="D33" s="7">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E33" s="7">
-        <v>10</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>158</v>
+        <v>17</v>
+      </c>
+      <c r="F33" s="7">
+        <v>392</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -2329,7 +2624,7 @@
     </row>
     <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B34" s="7">
         <v>36000000</v>
@@ -2338,25 +2633,25 @@
         <v>100</v>
       </c>
       <c r="D34" s="7">
-        <v>217</v>
+        <v>54</v>
       </c>
       <c r="E34" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -2366,7 +2661,7 @@
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B35" s="7">
         <v>36000000</v>
@@ -2375,25 +2670,25 @@
         <v>100</v>
       </c>
       <c r="D35" s="7">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E35" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -2403,7 +2698,7 @@
     </row>
     <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B36" s="7">
         <v>36000000</v>
@@ -2412,25 +2707,25 @@
         <v>100</v>
       </c>
       <c r="D36" s="7">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="E36" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -2440,7 +2735,7 @@
     </row>
     <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B37" s="7">
         <v>36000000</v>
@@ -2449,25 +2744,25 @@
         <v>100</v>
       </c>
       <c r="D37" s="7">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="E37" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I37" s="8">
-        <v>91</v>
-      </c>
-      <c r="J37" s="8">
-        <v>2</v>
+        <v>94</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -2475,9 +2770,824 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
+    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C38" s="7">
+        <v>100</v>
+      </c>
+      <c r="D38" s="7">
+        <v>49</v>
+      </c>
+      <c r="E38" s="7">
+        <v>14</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C39" s="7">
+        <v>100</v>
+      </c>
+      <c r="D39" s="7">
+        <v>54</v>
+      </c>
+      <c r="E39" s="7">
+        <v>12</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C40" s="7">
+        <v>100</v>
+      </c>
+      <c r="D40" s="7">
+        <v>51</v>
+      </c>
+      <c r="E40" s="7">
+        <v>12</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C41" s="7">
+        <v>100</v>
+      </c>
+      <c r="D41" s="7">
+        <v>48</v>
+      </c>
+      <c r="E41" s="7">
+        <v>12</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C42" s="7">
+        <v>100</v>
+      </c>
+      <c r="D42" s="7">
+        <v>42</v>
+      </c>
+      <c r="E42" s="7">
+        <v>13</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C43" s="7">
+        <v>100</v>
+      </c>
+      <c r="D43" s="7">
+        <v>47</v>
+      </c>
+      <c r="E43" s="7">
+        <v>11</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C44" s="7">
+        <v>100</v>
+      </c>
+      <c r="D44" s="7">
+        <v>54</v>
+      </c>
+      <c r="E44" s="7">
+        <v>9</v>
+      </c>
+      <c r="F44" s="7">
+        <v>740</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C45" s="7">
+        <v>100</v>
+      </c>
+      <c r="D45" s="7">
+        <v>51</v>
+      </c>
+      <c r="E45" s="7">
+        <v>9</v>
+      </c>
+      <c r="F45" s="7">
+        <v>784</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C46" s="7">
+        <v>100</v>
+      </c>
+      <c r="D46" s="7">
+        <v>48</v>
+      </c>
+      <c r="E46" s="7">
+        <v>9</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C47" s="7">
+        <v>100</v>
+      </c>
+      <c r="D47" s="7">
+        <v>51</v>
+      </c>
+      <c r="E47" s="7">
+        <v>8</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C48" s="7">
+        <v>100</v>
+      </c>
+      <c r="D48" s="7">
+        <v>35</v>
+      </c>
+      <c r="E48" s="7">
+        <v>11</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C49" s="7">
+        <v>100</v>
+      </c>
+      <c r="D49" s="7">
+        <v>52</v>
+      </c>
+      <c r="E49" s="7">
+        <v>7</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C50" s="7">
+        <v>100</v>
+      </c>
+      <c r="D50" s="7">
+        <v>49</v>
+      </c>
+      <c r="E50" s="7">
+        <v>7</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C51" s="7">
+        <v>100</v>
+      </c>
+      <c r="D51" s="7">
+        <v>54</v>
+      </c>
+      <c r="E51" s="7">
+        <v>6</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C52" s="7">
+        <v>100</v>
+      </c>
+      <c r="D52" s="7">
+        <v>51</v>
+      </c>
+      <c r="E52" s="7">
+        <v>6</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C53" s="7">
+        <v>100</v>
+      </c>
+      <c r="D53" s="7">
+        <v>29</v>
+      </c>
+      <c r="E53" s="7">
+        <v>10</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C54" s="7">
+        <v>100</v>
+      </c>
+      <c r="D54" s="7">
+        <v>34</v>
+      </c>
+      <c r="E54" s="7">
+        <v>8</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C55" s="7">
+        <v>100</v>
+      </c>
+      <c r="D55" s="7">
+        <v>43</v>
+      </c>
+      <c r="E55" s="7">
+        <v>6</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C56" s="7">
+        <v>100</v>
+      </c>
+      <c r="D56" s="7">
+        <v>27</v>
+      </c>
+      <c r="E56" s="7">
+        <v>9</v>
+      </c>
+      <c r="F56" s="7">
+        <v>1480</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C57" s="7">
+        <v>100</v>
+      </c>
+      <c r="D57" s="7">
+        <v>23</v>
+      </c>
+      <c r="E57" s="7">
+        <v>10</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C58" s="7">
+        <v>100</v>
+      </c>
+      <c r="D58" s="7">
+        <v>217</v>
+      </c>
+      <c r="E58" s="7">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C59" s="7">
+        <v>100</v>
+      </c>
+      <c r="D59" s="7">
+        <v>51</v>
+      </c>
+      <c r="E59" s="7">
+        <v>4</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C60" s="7">
+        <v>100</v>
+      </c>
+      <c r="D60" s="7">
+        <v>193</v>
+      </c>
+      <c r="E60" s="7">
+        <v>1</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="7">
+        <v>36000000</v>
+      </c>
+      <c r="C61" s="7">
+        <v>100</v>
+      </c>
+      <c r="D61" s="7">
+        <v>91</v>
+      </c>
+      <c r="E61" s="7">
+        <v>2</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I61" s="8">
+        <v>91</v>
+      </c>
+      <c r="J61" s="8">
+        <v>2</v>
+      </c>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>